--- a/03_PizzaShop/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/03_PizzaShop/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\VVSS\03_PizzaShop\Docs\Lab01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\VVSS\PizzaShop-VVSS\03_PizzaShop\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7516EF1D-A8BB-43E6-8ACA-B53B0782BE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7EA792-86EA-4229-8433-A1BBC4E7E1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1853,8 +1853,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2224,7 +2224,9 @@
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
-      <c r="F32" s="18"/>
+      <c r="F32" s="18">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/03_PizzaShop/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/03_PizzaShop/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\VVSS\PizzaShop-VVSS\03_PizzaShop\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7EA792-86EA-4229-8433-A1BBC4E7E1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB157F2-E683-46E6-BE82-EBC052A61A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3540" yWindow="3540" windowWidth="21600" windowHeight="11385" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -862,7 +862,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1175,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E7"/>
+      <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,8 +1853,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
